--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
-    <t>15-07-2024 (14:29:01)</t>
+    <t>16-07-2024 (09:25:42)</t>
   </si>
   <si>
     <t>Voltage (V)</t>
@@ -23,58 +23,73 @@
     <t>Temperature (C)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:02)</t>
+    <t>16-07-2024 (09:25:43)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:03)</t>
+    <t>16-07-2024 (09:25:44)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:04)</t>
+    <t>16-07-2024 (09:25:45)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:05)</t>
+    <t>16-07-2024 (09:25:46)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:06)</t>
+    <t>16-07-2024 (09:25:47)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:07)</t>
+    <t>16-07-2024 (09:25:48)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:08)</t>
+    <t>16-07-2024 (09:25:49)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:09)</t>
+    <t>16-07-2024 (09:25:50)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:10)</t>
+    <t>16-07-2024 (09:25:51)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:11)</t>
+    <t>16-07-2024 (09:25:52)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:12)</t>
+    <t>16-07-2024 (09:25:53)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:13)</t>
+    <t>16-07-2024 (09:25:54)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:14)</t>
+    <t>16-07-2024 (09:25:55)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:15)</t>
+    <t>16-07-2024 (09:25:56)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:16)</t>
+    <t>16-07-2024 (09:25:57)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:17)</t>
+    <t>16-07-2024 (09:25:58)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:18)</t>
+    <t>16-07-2024 (09:25:59)</t>
   </si>
   <si>
-    <t>15-07-2024 (14:29:19)</t>
+    <t>16-07-2024 (09:26:01)</t>
+  </si>
+  <si>
+    <t>16-07-2024 (09:26:02)</t>
+  </si>
+  <si>
+    <t>16-07-2024 (09:26:03)</t>
+  </si>
+  <si>
+    <t>16-07-2024 (09:26:04)</t>
+  </si>
+  <si>
+    <t>16-07-2024 (09:26:05)</t>
+  </si>
+  <si>
+    <t>16-07-2024 (09:26:06)</t>
   </si>
 </sst>
 </file>
@@ -129,8 +144,443 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1654">
+  <cellXfs count="2089">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
@@ -1790,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE75"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1896,94 +2346,94 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>3.3311</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>3.3326</v>
+        <v>3.3327</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>3.3294</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3287</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3285</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>3.3293</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3346</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>3.336</v>
+        <v>3.3357</v>
       </c>
       <c r="O2" t="n" s="0">
-        <v>3.3381</v>
+        <v>3.3378</v>
       </c>
       <c r="P2" t="n" s="0">
-        <v>3.3356</v>
+        <v>3.3354</v>
       </c>
       <c r="Q2" t="n" s="0">
         <v>3.3322</v>
       </c>
       <c r="R2" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.3361</v>
       </c>
       <c r="S2" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T2" s="56" t="n">
-        <v>3.3403</v>
+        <v>3.3398</v>
       </c>
       <c r="U2" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3336</v>
       </c>
       <c r="V2" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3368</v>
       </c>
       <c r="W2" t="n" s="0">
-        <v>3.3392</v>
+        <v>3.3387</v>
       </c>
       <c r="X2" t="n" s="0">
-        <v>3.3355</v>
+        <v>3.3352</v>
       </c>
       <c r="Y2" t="n" s="0">
-        <v>3.3346</v>
+        <v>3.3342</v>
       </c>
       <c r="Z2" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA2" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3372</v>
       </c>
       <c r="AB2" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3374</v>
       </c>
       <c r="AC2" t="n" s="0">
-        <v>3.3353</v>
+        <v>3.3349</v>
       </c>
       <c r="AD2" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.328</v>
       </c>
       <c r="AE2" t="n" s="0">
-        <v>96.625</v>
+        <v>96.6176</v>
       </c>
     </row>
     <row r="3">
@@ -1991,91 +2441,91 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>31.01</v>
+        <v>28.04</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>30.97</v>
+        <v>28.18</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>29.86</v>
+        <v>27.4</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>29.63</v>
+        <v>27.94</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>25.12</v>
+        <v>23.52</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>29.91</v>
+        <v>27.65</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>30.24</v>
+        <v>27.68</v>
       </c>
       <c r="O3" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P3" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R3" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S3" t="n" s="0">
-        <v>30.91</v>
+        <v>28.47</v>
       </c>
       <c r="T3" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U3" t="n" s="0">
-        <v>30.19</v>
+        <v>28.13</v>
       </c>
       <c r="V3" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W3" t="n" s="0">
-        <v>30.34</v>
+        <v>28.05</v>
       </c>
       <c r="X3" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y3" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z3" t="n" s="0">
-        <v>31.2</v>
+        <v>28.43</v>
       </c>
       <c r="AA3" t="n" s="0">
-        <v>30.41</v>
+        <v>27.93</v>
       </c>
       <c r="AB3" t="n" s="0">
-        <v>30.54</v>
+        <v>28.16</v>
       </c>
       <c r="AC3" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD3" s="87" t="n">
-        <v>31.65</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="5">
@@ -2175,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="89" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>3.3311</v>
@@ -2187,82 +2637,82 @@
         <v>3.3326</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>3.3293</v>
+        <v>3.3294</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3285</v>
       </c>
       <c r="H6" t="n" s="0">
         <v>3.3285</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3346</v>
       </c>
       <c r="L6" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="M6" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N6" t="n" s="0">
+        <v>3.3359</v>
+      </c>
+      <c r="O6" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P6" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q6" t="n" s="0">
+        <v>3.3319</v>
+      </c>
+      <c r="R6" t="n" s="0">
+        <v>3.3359</v>
+      </c>
+      <c r="S6" t="n" s="0">
+        <v>3.331</v>
+      </c>
+      <c r="T6" s="143" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U6" t="n" s="0">
         <v>3.3338</v>
       </c>
-      <c r="N6" t="n" s="0">
-        <v>3.3362</v>
-      </c>
-      <c r="O6" t="n" s="0">
-        <v>3.3382</v>
-      </c>
-      <c r="P6" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Q6" t="n" s="0">
-        <v>3.3323</v>
-      </c>
-      <c r="R6" t="n" s="0">
-        <v>3.3363</v>
-      </c>
-      <c r="S6" t="n" s="0">
-        <v>3.3308</v>
-      </c>
-      <c r="T6" s="143" t="n">
-        <v>3.3404</v>
-      </c>
-      <c r="U6" t="n" s="0">
-        <v>3.3339</v>
-      </c>
       <c r="V6" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3367</v>
       </c>
       <c r="W6" t="n" s="0">
-        <v>3.3393</v>
+        <v>3.3388</v>
       </c>
       <c r="X6" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3352</v>
       </c>
       <c r="Y6" t="n" s="0">
-        <v>3.3346</v>
+        <v>3.3342</v>
       </c>
       <c r="Z6" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="AA6" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3372</v>
       </c>
       <c r="AB6" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="AC6" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.3351</v>
       </c>
       <c r="AD6" t="n" s="0">
-        <v>3.328</v>
+        <v>3.3281</v>
       </c>
       <c r="AE6" t="n" s="0">
-        <v>96.625</v>
+        <v>96.61789999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2270,91 +2720,91 @@
         <v>2</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>31.01</v>
+        <v>28.04</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>31.04</v>
+        <v>28.39</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>29.86</v>
+        <v>27.4</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>29.94</v>
+        <v>28.09</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>29.63</v>
+        <v>27.94</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>25.16</v>
+        <v>23.52</v>
       </c>
       <c r="L7" t="n" s="0">
-        <v>29.92</v>
+        <v>27.66</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N7" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O7" t="n" s="0">
-        <v>29.66</v>
+        <v>27.61</v>
       </c>
       <c r="P7" t="n" s="0">
-        <v>29.72</v>
+        <v>27.7</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>29.61</v>
+        <v>27.5</v>
       </c>
       <c r="S7" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T7" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U7" t="n" s="0">
-        <v>30.18</v>
+        <v>28.13</v>
       </c>
       <c r="V7" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W7" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X7" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y7" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z7" t="n" s="0">
-        <v>31.2</v>
+        <v>28.44</v>
       </c>
       <c r="AA7" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB7" t="n" s="0">
-        <v>30.54</v>
+        <v>28.16</v>
       </c>
       <c r="AC7" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD7" s="174" t="n">
-        <v>31.65</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="9">
@@ -2454,94 +2904,94 @@
         <v>1</v>
       </c>
       <c r="B10" s="176" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>3.3312</v>
+        <v>3.331</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>3.3319</v>
+        <v>3.3318</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>3.3327</v>
+        <v>3.3325</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>3.3293</v>
+        <v>3.3292</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3285</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3287</v>
       </c>
       <c r="I10" t="n" s="0">
         <v>3.3293</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="K10" t="n" s="0">
+        <v>3.3347</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>3.3335</v>
+      </c>
+      <c r="N10" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O10" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P10" t="n" s="0">
+        <v>3.3353</v>
+      </c>
+      <c r="Q10" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R10" t="n" s="0">
+        <v>3.336</v>
+      </c>
+      <c r="S10" t="n" s="0">
+        <v>3.3309</v>
+      </c>
+      <c r="T10" s="230" t="n">
+        <v>3.3398</v>
+      </c>
+      <c r="U10" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="V10" t="n" s="0">
+        <v>3.3366</v>
+      </c>
+      <c r="W10" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X10" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="Y10" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z10" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA10" t="n" s="0">
+        <v>3.3372</v>
+      </c>
+      <c r="AB10" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="AC10" t="n" s="0">
         <v>3.3349</v>
       </c>
-      <c r="L10" t="n" s="0">
-        <v>3.3378</v>
-      </c>
-      <c r="M10" t="n" s="0">
-        <v>3.3338</v>
-      </c>
-      <c r="N10" t="n" s="0">
-        <v>3.336</v>
-      </c>
-      <c r="O10" t="n" s="0">
-        <v>3.3381</v>
-      </c>
-      <c r="P10" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Q10" t="n" s="0">
-        <v>3.3323</v>
-      </c>
-      <c r="R10" t="n" s="0">
-        <v>3.3363</v>
-      </c>
-      <c r="S10" t="n" s="0">
-        <v>3.3308</v>
-      </c>
-      <c r="T10" s="230" t="n">
-        <v>3.3404</v>
-      </c>
-      <c r="U10" t="n" s="0">
-        <v>3.3339</v>
-      </c>
-      <c r="V10" t="n" s="0">
-        <v>3.337</v>
-      </c>
-      <c r="W10" t="n" s="0">
-        <v>3.3391</v>
-      </c>
-      <c r="X10" t="n" s="0">
-        <v>3.3355</v>
-      </c>
-      <c r="Y10" t="n" s="0">
-        <v>3.3346</v>
-      </c>
-      <c r="Z10" t="n" s="0">
-        <v>3.3344</v>
-      </c>
-      <c r="AA10" t="n" s="0">
-        <v>3.3377</v>
-      </c>
-      <c r="AB10" t="n" s="0">
-        <v>3.3379</v>
-      </c>
-      <c r="AC10" t="n" s="0">
-        <v>3.3352</v>
-      </c>
       <c r="AD10" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.328</v>
       </c>
       <c r="AE10" t="n" s="0">
-        <v>96.6252</v>
+        <v>96.6167</v>
       </c>
     </row>
     <row r="11">
@@ -2549,91 +2999,91 @@
         <v>2</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>31.02</v>
+        <v>28.04</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>30.97</v>
+        <v>28.18</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>29.63</v>
+        <v>27.94</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>25.15</v>
+        <v>23.51</v>
       </c>
       <c r="L11" t="n" s="0">
-        <v>29.92</v>
+        <v>27.65</v>
       </c>
       <c r="M11" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N11" t="n" s="0">
-        <v>30.25</v>
+        <v>27.68</v>
       </c>
       <c r="O11" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P11" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q11" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R11" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S11" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T11" t="n" s="0">
-        <v>30.56</v>
+        <v>28.21</v>
       </c>
       <c r="U11" t="n" s="0">
-        <v>30.18</v>
+        <v>28.14</v>
       </c>
       <c r="V11" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W11" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X11" t="n" s="0">
-        <v>31.22</v>
+        <v>28.47</v>
       </c>
       <c r="Y11" t="n" s="0">
-        <v>31.09</v>
+        <v>28.19</v>
       </c>
       <c r="Z11" t="n" s="0">
-        <v>31.2</v>
+        <v>28.44</v>
       </c>
       <c r="AA11" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB11" t="n" s="0">
-        <v>30.54</v>
+        <v>28.17</v>
       </c>
       <c r="AC11" t="n" s="0">
-        <v>30.29</v>
+        <v>27.96</v>
       </c>
       <c r="AD11" s="261" t="n">
-        <v>31.64</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="13">
@@ -2733,52 +3183,52 @@
         <v>1</v>
       </c>
       <c r="B14" s="263" t="n">
-        <v>3.2701</v>
+        <v>3.2684</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>3.3311</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>3.3325</v>
+        <v>3.3327</v>
       </c>
       <c r="F14" t="n" s="0">
+        <v>3.3294</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>3.3287</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="I14" t="n" s="0">
         <v>3.3293</v>
       </c>
-      <c r="G14" t="n" s="0">
-        <v>3.3285</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>3.3284</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>3.3292</v>
-      </c>
       <c r="J14" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3347</v>
       </c>
       <c r="L14" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="M14" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="N14" t="n" s="0">
-        <v>3.3359</v>
+        <v>3.3357</v>
       </c>
       <c r="O14" t="n" s="0">
-        <v>3.3382</v>
+        <v>3.3378</v>
       </c>
       <c r="P14" t="n" s="0">
-        <v>3.3357</v>
+        <v>3.3354</v>
       </c>
       <c r="Q14" t="n" s="0">
-        <v>3.3323</v>
+        <v>3.3321</v>
       </c>
       <c r="R14" t="n" s="0">
         <v>3.3361</v>
@@ -2787,40 +3237,40 @@
         <v>3.3309</v>
       </c>
       <c r="T14" s="317" t="n">
-        <v>3.3405</v>
+        <v>3.3398</v>
       </c>
       <c r="U14" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="V14" t="n" s="0">
-        <v>3.3371</v>
+        <v>3.3366</v>
       </c>
       <c r="W14" t="n" s="0">
-        <v>3.3393</v>
+        <v>3.3387</v>
       </c>
       <c r="X14" t="n" s="0">
-        <v>3.3355</v>
+        <v>3.3351</v>
       </c>
       <c r="Y14" t="n" s="0">
-        <v>3.3347</v>
+        <v>3.3342</v>
       </c>
       <c r="Z14" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA14" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3372</v>
       </c>
       <c r="AB14" t="n" s="0">
-        <v>3.3379</v>
+        <v>3.3374</v>
       </c>
       <c r="AC14" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.3351</v>
       </c>
       <c r="AD14" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.328</v>
       </c>
       <c r="AE14" t="n" s="0">
-        <v>96.6251</v>
+        <v>96.6176</v>
       </c>
     </row>
     <row r="15">
@@ -2828,91 +3278,91 @@
         <v>2</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>31.02</v>
+        <v>28.05</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>29.86</v>
+        <v>27.4</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>30.57</v>
+        <v>28.08</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>29.88</v>
+        <v>27.94</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>29.64</v>
+        <v>27.95</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>25.18</v>
+        <v>23.52</v>
       </c>
       <c r="L15" t="n" s="0">
-        <v>29.91</v>
+        <v>27.66</v>
       </c>
       <c r="M15" t="n" s="0">
-        <v>31.15</v>
+        <v>28.4</v>
       </c>
       <c r="N15" t="n" s="0">
-        <v>30.24</v>
+        <v>27.69</v>
       </c>
       <c r="O15" t="n" s="0">
-        <v>29.66</v>
+        <v>27.61</v>
       </c>
       <c r="P15" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q15" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R15" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S15" t="n" s="0">
-        <v>30.91</v>
+        <v>28.48</v>
       </c>
       <c r="T15" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U15" t="n" s="0">
-        <v>30.18</v>
+        <v>28.13</v>
       </c>
       <c r="V15" t="n" s="0">
-        <v>30.16</v>
+        <v>28.1</v>
       </c>
       <c r="W15" t="n" s="0">
-        <v>30.33</v>
+        <v>28.07</v>
       </c>
       <c r="X15" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y15" t="n" s="0">
-        <v>31.09</v>
+        <v>28.2</v>
       </c>
       <c r="Z15" t="n" s="0">
-        <v>31.2</v>
+        <v>28.44</v>
       </c>
       <c r="AA15" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB15" t="n" s="0">
-        <v>30.54</v>
+        <v>28.16</v>
       </c>
       <c r="AC15" t="n" s="0">
-        <v>30.29</v>
+        <v>27.96</v>
       </c>
       <c r="AD15" s="348" t="n">
-        <v>31.64</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="17">
@@ -3012,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="350" t="n">
-        <v>3.2702</v>
+        <v>3.2685</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>3.3312</v>
@@ -3024,82 +3474,82 @@
         <v>3.3327</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G18" t="n" s="0">
         <v>3.3286</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3285</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3292</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3336</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>3.3348</v>
+        <v>3.3345</v>
       </c>
       <c r="L18" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3374</v>
       </c>
       <c r="M18" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3336</v>
       </c>
       <c r="N18" t="n" s="0">
-        <v>3.336</v>
+        <v>3.3356</v>
       </c>
       <c r="O18" t="n" s="0">
-        <v>3.3381</v>
+        <v>3.338</v>
       </c>
       <c r="P18" t="n" s="0">
-        <v>3.3357</v>
+        <v>3.3355</v>
       </c>
       <c r="Q18" t="n" s="0">
-        <v>3.3322</v>
+        <v>3.3321</v>
       </c>
       <c r="R18" t="n" s="0">
-        <v>3.3361</v>
+        <v>3.3359</v>
       </c>
       <c r="S18" t="n" s="0">
-        <v>3.3308</v>
+        <v>3.3309</v>
       </c>
       <c r="T18" s="404" t="n">
-        <v>3.3404</v>
+        <v>3.3399</v>
       </c>
       <c r="U18" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="V18" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3367</v>
       </c>
       <c r="W18" t="n" s="0">
-        <v>3.3391</v>
+        <v>3.3388</v>
       </c>
       <c r="X18" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3352</v>
       </c>
       <c r="Y18" t="n" s="0">
-        <v>3.3346</v>
+        <v>3.3343</v>
       </c>
       <c r="Z18" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA18" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3372</v>
       </c>
       <c r="AB18" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="AC18" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.3351</v>
       </c>
       <c r="AD18" t="n" s="0">
         <v>3.3281</v>
       </c>
       <c r="AE18" t="n" s="0">
-        <v>96.62469999999999</v>
+        <v>96.6177</v>
       </c>
     </row>
     <row r="19">
@@ -3107,91 +3557,91 @@
         <v>2</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>31.01</v>
+        <v>28.04</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>30.97</v>
+        <v>28.18</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>29.61</v>
+        <v>27.2</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>31.05</v>
+        <v>28.37</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>29.87</v>
+        <v>27.39</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>29.93</v>
+        <v>28.08</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>25.17</v>
+        <v>23.51</v>
       </c>
       <c r="L19" t="n" s="0">
-        <v>29.92</v>
+        <v>27.65</v>
       </c>
       <c r="M19" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N19" t="n" s="0">
-        <v>30.25</v>
+        <v>27.68</v>
       </c>
       <c r="O19" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P19" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q19" t="n" s="0">
-        <v>30.01</v>
+        <v>28.24</v>
       </c>
       <c r="R19" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S19" t="n" s="0">
-        <v>30.91</v>
+        <v>28.47</v>
       </c>
       <c r="T19" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U19" t="n" s="0">
-        <v>30.19</v>
+        <v>28.14</v>
       </c>
       <c r="V19" t="n" s="0">
-        <v>30.17</v>
+        <v>28.1</v>
       </c>
       <c r="W19" t="n" s="0">
-        <v>30.34</v>
+        <v>28.06</v>
       </c>
       <c r="X19" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y19" t="n" s="0">
-        <v>31.1</v>
+        <v>28.2</v>
       </c>
       <c r="Z19" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA19" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB19" t="n" s="0">
-        <v>30.55</v>
+        <v>28.17</v>
       </c>
       <c r="AC19" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD19" s="435" t="n">
-        <v>31.65</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="21">
@@ -3291,94 +3741,94 @@
         <v>1</v>
       </c>
       <c r="B22" s="437" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>3.3312</v>
+        <v>3.3311</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3318</v>
       </c>
       <c r="E22" t="n" s="0">
         <v>3.3326</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3287</v>
       </c>
       <c r="H22" t="n" s="0">
         <v>3.3285</v>
       </c>
       <c r="I22" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J22" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="K22" t="n" s="0">
-        <v>3.3348</v>
+        <v>3.3346</v>
       </c>
       <c r="L22" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="M22" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N22" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O22" t="n" s="0">
         <v>3.3377</v>
       </c>
-      <c r="M22" t="n" s="0">
+      <c r="P22" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q22" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R22" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="S22" t="n" s="0">
+        <v>3.3309</v>
+      </c>
+      <c r="T22" s="491" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U22" t="n" s="0">
         <v>3.3338</v>
       </c>
-      <c r="N22" t="n" s="0">
-        <v>3.336</v>
-      </c>
-      <c r="O22" t="n" s="0">
-        <v>3.3382</v>
-      </c>
-      <c r="P22" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Q22" t="n" s="0">
-        <v>3.3322</v>
-      </c>
-      <c r="R22" t="n" s="0">
-        <v>3.3362</v>
-      </c>
-      <c r="S22" t="n" s="0">
-        <v>3.331</v>
-      </c>
-      <c r="T22" s="491" t="n">
-        <v>3.3404</v>
-      </c>
-      <c r="U22" t="n" s="0">
-        <v>3.3339</v>
-      </c>
       <c r="V22" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3367</v>
       </c>
       <c r="W22" t="n" s="0">
-        <v>3.3392</v>
+        <v>3.3387</v>
       </c>
       <c r="X22" t="n" s="0">
-        <v>3.3355</v>
+        <v>3.3351</v>
       </c>
       <c r="Y22" t="n" s="0">
-        <v>3.3346</v>
+        <v>3.3341</v>
       </c>
       <c r="Z22" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="AA22" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3371</v>
       </c>
       <c r="AB22" t="n" s="0">
-        <v>3.3379</v>
+        <v>3.3374</v>
       </c>
       <c r="AC22" t="n" s="0">
-        <v>3.3353</v>
+        <v>3.335</v>
       </c>
       <c r="AD22" t="n" s="0">
         <v>3.328</v>
       </c>
       <c r="AE22" t="n" s="0">
-        <v>96.62520000000002</v>
+        <v>96.61679999999998</v>
       </c>
     </row>
     <row r="23">
@@ -3386,91 +3836,91 @@
         <v>2</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>31.03</v>
+        <v>28.04</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>29.62</v>
+        <v>27.21</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v>25.14</v>
+        <v>23.53</v>
       </c>
       <c r="L23" t="n" s="0">
-        <v>29.92</v>
+        <v>27.65</v>
       </c>
       <c r="M23" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N23" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O23" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P23" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q23" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R23" t="n" s="0">
-        <v>29.62</v>
+        <v>27.5</v>
       </c>
       <c r="S23" t="n" s="0">
-        <v>30.91</v>
+        <v>28.47</v>
       </c>
       <c r="T23" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U23" t="n" s="0">
-        <v>30.18</v>
+        <v>28.13</v>
       </c>
       <c r="V23" t="n" s="0">
-        <v>30.16</v>
+        <v>28.1</v>
       </c>
       <c r="W23" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X23" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y23" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z23" t="n" s="0">
-        <v>31.2</v>
+        <v>28.44</v>
       </c>
       <c r="AA23" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB23" t="n" s="0">
-        <v>30.54</v>
+        <v>28.16</v>
       </c>
       <c r="AC23" t="n" s="0">
-        <v>30.29</v>
+        <v>27.95</v>
       </c>
       <c r="AD23" s="522" t="n">
-        <v>31.65</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="25">
@@ -3570,19 +4020,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="524" t="n">
-        <v>3.2702</v>
+        <v>3.2685</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>3.3312</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>3.3326</v>
+        <v>3.3325</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G26" t="n" s="0">
         <v>3.3286</v>
@@ -3591,73 +4041,73 @@
         <v>3.3285</v>
       </c>
       <c r="I26" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J26" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="K26" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3346</v>
       </c>
       <c r="L26" t="n" s="0">
-        <v>3.3379</v>
+        <v>3.3373</v>
       </c>
       <c r="M26" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3336</v>
       </c>
       <c r="N26" t="n" s="0">
-        <v>3.3361</v>
+        <v>3.3358</v>
       </c>
       <c r="O26" t="n" s="0">
-        <v>3.3381</v>
+        <v>3.3378</v>
       </c>
       <c r="P26" t="n" s="0">
         <v>3.3355</v>
       </c>
       <c r="Q26" t="n" s="0">
-        <v>3.3322</v>
+        <v>3.3321</v>
       </c>
       <c r="R26" t="n" s="0">
-        <v>3.3363</v>
+        <v>3.336</v>
       </c>
       <c r="S26" t="n" s="0">
-        <v>3.3309</v>
+        <v>3.331</v>
       </c>
       <c r="T26" s="578" t="n">
-        <v>3.3404</v>
+        <v>3.3398</v>
       </c>
       <c r="U26" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="V26" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W26" t="n" s="0">
+        <v>3.3387</v>
+      </c>
+      <c r="X26" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y26" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z26" t="n" s="0">
+        <v>3.3341</v>
+      </c>
+      <c r="AA26" t="n" s="0">
         <v>3.337</v>
       </c>
-      <c r="W26" t="n" s="0">
-        <v>3.3391</v>
-      </c>
-      <c r="X26" t="n" s="0">
-        <v>3.3354</v>
-      </c>
-      <c r="Y26" t="n" s="0">
-        <v>3.3346</v>
-      </c>
-      <c r="Z26" t="n" s="0">
-        <v>3.3345</v>
-      </c>
-      <c r="AA26" t="n" s="0">
-        <v>3.3377</v>
-      </c>
       <c r="AB26" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3374</v>
       </c>
       <c r="AC26" t="n" s="0">
-        <v>3.3353</v>
+        <v>3.3349</v>
       </c>
       <c r="AD26" t="n" s="0">
         <v>3.328</v>
       </c>
       <c r="AE26" t="n" s="0">
-        <v>96.6251</v>
+        <v>96.61710000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3665,91 +4115,91 @@
         <v>2</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>31.03</v>
+        <v>28.04</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E27" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F27" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G27" t="n" s="0">
-        <v>30.58</v>
+        <v>28.08</v>
       </c>
       <c r="H27" t="n" s="0">
-        <v>29.88</v>
+        <v>27.94</v>
       </c>
       <c r="I27" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J27" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K27" t="n" s="0">
-        <v>25.14</v>
+        <v>23.52</v>
       </c>
       <c r="L27" t="n" s="0">
-        <v>29.92</v>
+        <v>27.66</v>
       </c>
       <c r="M27" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N27" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O27" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P27" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q27" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R27" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S27" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T27" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U27" t="n" s="0">
-        <v>30.19</v>
+        <v>28.14</v>
       </c>
       <c r="V27" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W27" t="n" s="0">
-        <v>30.34</v>
+        <v>28.05</v>
       </c>
       <c r="X27" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y27" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z27" t="n" s="0">
-        <v>31.2</v>
+        <v>28.44</v>
       </c>
       <c r="AA27" t="n" s="0">
-        <v>30.42</v>
+        <v>27.94</v>
       </c>
       <c r="AB27" t="n" s="0">
-        <v>30.54</v>
+        <v>28.16</v>
       </c>
       <c r="AC27" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD27" s="609" t="n">
-        <v>31.65</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="29">
@@ -3849,94 +4299,94 @@
         <v>1</v>
       </c>
       <c r="B30" s="611" t="n">
-        <v>3.2701</v>
+        <v>3.2684</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>3.3311</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>3.3327</v>
+        <v>3.3326</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G30" t="n" s="0">
         <v>3.3286</v>
       </c>
       <c r="H30" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3286</v>
       </c>
       <c r="I30" t="n" s="0">
         <v>3.3292</v>
       </c>
       <c r="J30" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="K30" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3346</v>
       </c>
       <c r="L30" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M30" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N30" t="n" s="0">
+        <v>3.3357</v>
+      </c>
+      <c r="O30" t="n" s="0">
         <v>3.3378</v>
       </c>
-      <c r="M30" t="n" s="0">
-        <v>3.3338</v>
-      </c>
-      <c r="N30" t="n" s="0">
-        <v>3.336</v>
-      </c>
-      <c r="O30" t="n" s="0">
-        <v>3.3381</v>
-      </c>
       <c r="P30" t="n" s="0">
-        <v>3.3357</v>
+        <v>3.3354</v>
       </c>
       <c r="Q30" t="n" s="0">
-        <v>3.3323</v>
+        <v>3.332</v>
       </c>
       <c r="R30" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.3359</v>
       </c>
       <c r="S30" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T30" s="665" t="n">
-        <v>3.3404</v>
+        <v>3.3399</v>
       </c>
       <c r="U30" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="V30" t="n" s="0">
+        <v>3.3366</v>
+      </c>
+      <c r="W30" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X30" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="Y30" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z30" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA30" t="n" s="0">
         <v>3.3371</v>
       </c>
-      <c r="W30" t="n" s="0">
-        <v>3.3392</v>
-      </c>
-      <c r="X30" t="n" s="0">
-        <v>3.3355</v>
-      </c>
-      <c r="Y30" t="n" s="0">
-        <v>3.3345</v>
-      </c>
-      <c r="Z30" t="n" s="0">
-        <v>3.3344</v>
-      </c>
-      <c r="AA30" t="n" s="0">
-        <v>3.3376</v>
-      </c>
       <c r="AB30" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="AC30" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3351</v>
       </c>
       <c r="AD30" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.328</v>
       </c>
       <c r="AE30" t="n" s="0">
-        <v>96.62510000000003</v>
+        <v>96.61690000000002</v>
       </c>
     </row>
     <row r="31">
@@ -3944,91 +4394,91 @@
         <v>2</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>31.03</v>
+        <v>28.05</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F31" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H31" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I31" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J31" t="n" s="0">
-        <v>29.63</v>
+        <v>27.94</v>
       </c>
       <c r="K31" t="n" s="0">
-        <v>25.16</v>
+        <v>23.52</v>
       </c>
       <c r="L31" t="n" s="0">
-        <v>29.91</v>
+        <v>27.66</v>
       </c>
       <c r="M31" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N31" t="n" s="0">
-        <v>30.24</v>
+        <v>27.69</v>
       </c>
       <c r="O31" t="n" s="0">
-        <v>29.66</v>
+        <v>27.61</v>
       </c>
       <c r="P31" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q31" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R31" t="n" s="0">
-        <v>29.61</v>
+        <v>27.5</v>
       </c>
       <c r="S31" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T31" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U31" t="n" s="0">
-        <v>30.19</v>
+        <v>28.14</v>
       </c>
       <c r="V31" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W31" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X31" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y31" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z31" t="n" s="0">
-        <v>31.2</v>
+        <v>28.44</v>
       </c>
       <c r="AA31" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB31" t="n" s="0">
-        <v>30.54</v>
+        <v>28.17</v>
       </c>
       <c r="AC31" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD31" s="696" t="n">
-        <v>31.65</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="33">
@@ -4128,94 +4578,94 @@
         <v>1</v>
       </c>
       <c r="B34" s="698" t="n">
-        <v>3.2701</v>
+        <v>3.2685</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>3.3311</v>
+        <v>3.3312</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>3.3326</v>
       </c>
       <c r="F34" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G34" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="H34" t="n" s="0">
         <v>3.3286</v>
       </c>
-      <c r="H34" t="n" s="0">
-        <v>3.3285</v>
-      </c>
       <c r="I34" t="n" s="0">
-        <v>3.3291</v>
+        <v>3.3293</v>
       </c>
       <c r="J34" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="K34" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3348</v>
       </c>
       <c r="L34" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="M34" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="N34" t="n" s="0">
+        <v>3.3357</v>
+      </c>
+      <c r="O34" t="n" s="0">
         <v>3.3378</v>
       </c>
-      <c r="M34" t="n" s="0">
-        <v>3.3338</v>
-      </c>
-      <c r="N34" t="n" s="0">
+      <c r="P34" t="n" s="0">
+        <v>3.3353</v>
+      </c>
+      <c r="Q34" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R34" t="n" s="0">
         <v>3.3359</v>
-      </c>
-      <c r="O34" t="n" s="0">
-        <v>3.3382</v>
-      </c>
-      <c r="P34" t="n" s="0">
-        <v>3.3357</v>
-      </c>
-      <c r="Q34" t="n" s="0">
-        <v>3.3323</v>
-      </c>
-      <c r="R34" t="n" s="0">
-        <v>3.336</v>
       </c>
       <c r="S34" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T34" s="752" t="n">
-        <v>3.3404</v>
+        <v>3.3398</v>
       </c>
       <c r="U34" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="V34" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W34" t="n" s="0">
+        <v>3.3387</v>
+      </c>
+      <c r="X34" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y34" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z34" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA34" t="n" s="0">
         <v>3.3371</v>
       </c>
-      <c r="W34" t="n" s="0">
-        <v>3.3392</v>
-      </c>
-      <c r="X34" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Y34" t="n" s="0">
-        <v>3.3346</v>
-      </c>
-      <c r="Z34" t="n" s="0">
-        <v>3.3344</v>
-      </c>
-      <c r="AA34" t="n" s="0">
-        <v>3.3376</v>
-      </c>
       <c r="AB34" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3374</v>
       </c>
       <c r="AC34" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.335</v>
       </c>
       <c r="AD34" t="n" s="0">
-        <v>3.328</v>
+        <v>3.3282</v>
       </c>
       <c r="AE34" t="n" s="0">
-        <v>96.62470000000002</v>
+        <v>96.61759999999998</v>
       </c>
     </row>
     <row r="35">
@@ -4223,91 +4673,91 @@
         <v>2</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>31.03</v>
+        <v>28.05</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E35" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F35" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G35" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H35" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I35" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J35" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K35" t="n" s="0">
-        <v>25.14</v>
+        <v>23.52</v>
       </c>
       <c r="L35" t="n" s="0">
-        <v>29.91</v>
+        <v>27.66</v>
       </c>
       <c r="M35" t="n" s="0">
-        <v>31.15</v>
+        <v>28.4</v>
       </c>
       <c r="N35" t="n" s="0">
-        <v>30.24</v>
+        <v>27.69</v>
       </c>
       <c r="O35" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P35" t="n" s="0">
-        <v>29.71</v>
+        <v>27.7</v>
       </c>
       <c r="Q35" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R35" t="n" s="0">
-        <v>29.61</v>
+        <v>27.5</v>
       </c>
       <c r="S35" t="n" s="0">
-        <v>30.91</v>
+        <v>28.48</v>
       </c>
       <c r="T35" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U35" t="n" s="0">
-        <v>30.19</v>
+        <v>28.14</v>
       </c>
       <c r="V35" t="n" s="0">
-        <v>30.17</v>
+        <v>28.1</v>
       </c>
       <c r="W35" t="n" s="0">
-        <v>30.34</v>
+        <v>28.06</v>
       </c>
       <c r="X35" t="n" s="0">
-        <v>31.21</v>
+        <v>28.48</v>
       </c>
       <c r="Y35" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z35" t="n" s="0">
-        <v>31.2</v>
+        <v>28.45</v>
       </c>
       <c r="AA35" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB35" t="n" s="0">
-        <v>30.54</v>
+        <v>28.17</v>
       </c>
       <c r="AC35" t="n" s="0">
-        <v>30.29</v>
+        <v>27.96</v>
       </c>
       <c r="AD35" s="783" t="n">
-        <v>31.66</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="37">
@@ -4407,16 +4857,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="785" t="n">
-        <v>3.2701</v>
+        <v>3.2684</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>3.3311</v>
+        <v>3.3312</v>
       </c>
       <c r="D38" t="n" s="0">
         <v>3.3319</v>
       </c>
       <c r="E38" t="n" s="0">
-        <v>3.3326</v>
+        <v>3.3325</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>3.3294</v>
@@ -4431,70 +4881,70 @@
         <v>3.3292</v>
       </c>
       <c r="J38" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3336</v>
       </c>
       <c r="K38" t="n" s="0">
-        <v>3.3347</v>
+        <v>3.3346</v>
       </c>
       <c r="L38" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3374</v>
       </c>
       <c r="M38" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3335</v>
       </c>
       <c r="N38" t="n" s="0">
-        <v>3.3359</v>
+        <v>3.3358</v>
       </c>
       <c r="O38" t="n" s="0">
-        <v>3.3381</v>
+        <v>3.3378</v>
       </c>
       <c r="P38" t="n" s="0">
-        <v>3.3356</v>
+        <v>3.3354</v>
       </c>
       <c r="Q38" t="n" s="0">
-        <v>3.3322</v>
+        <v>3.3321</v>
       </c>
       <c r="R38" t="n" s="0">
-        <v>3.3363</v>
+        <v>3.336</v>
       </c>
       <c r="S38" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T38" s="839" t="n">
-        <v>3.3405</v>
+        <v>3.3397</v>
       </c>
       <c r="U38" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="V38" t="n" s="0">
-        <v>3.3371</v>
+        <v>3.3366</v>
       </c>
       <c r="W38" t="n" s="0">
-        <v>3.3394</v>
+        <v>3.3388</v>
       </c>
       <c r="X38" t="n" s="0">
-        <v>3.3356</v>
+        <v>3.3352</v>
       </c>
       <c r="Y38" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="Z38" t="n" s="0">
-        <v>3.3343</v>
+        <v>3.3342</v>
       </c>
       <c r="AA38" t="n" s="0">
+        <v>3.3372</v>
+      </c>
+      <c r="AB38" t="n" s="0">
         <v>3.3376</v>
       </c>
-      <c r="AB38" t="n" s="0">
-        <v>3.3377</v>
-      </c>
       <c r="AC38" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.3349</v>
       </c>
       <c r="AD38" t="n" s="0">
         <v>3.328</v>
       </c>
       <c r="AE38" t="n" s="0">
-        <v>96.6244</v>
+        <v>96.61699999999999</v>
       </c>
     </row>
     <row r="39">
@@ -4502,91 +4952,91 @@
         <v>2</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>31.03</v>
+        <v>28.05</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.96</v>
+        <v>28.19</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>29.61</v>
+        <v>27.2</v>
       </c>
       <c r="E39" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F39" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G39" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H39" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I39" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J39" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K39" t="n" s="0">
-        <v>25.15</v>
+        <v>23.52</v>
       </c>
       <c r="L39" t="n" s="0">
-        <v>29.92</v>
+        <v>27.66</v>
       </c>
       <c r="M39" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N39" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O39" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P39" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q39" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R39" t="n" s="0">
-        <v>29.61</v>
+        <v>27.5</v>
       </c>
       <c r="S39" t="n" s="0">
-        <v>30.92</v>
+        <v>28.48</v>
       </c>
       <c r="T39" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U39" t="n" s="0">
-        <v>30.18</v>
+        <v>28.14</v>
       </c>
       <c r="V39" t="n" s="0">
-        <v>30.16</v>
+        <v>28.09</v>
       </c>
       <c r="W39" t="n" s="0">
-        <v>30.33</v>
+        <v>28.05</v>
       </c>
       <c r="X39" t="n" s="0">
-        <v>31.21</v>
+        <v>28.47</v>
       </c>
       <c r="Y39" t="n" s="0">
-        <v>31.09</v>
+        <v>28.19</v>
       </c>
       <c r="Z39" t="n" s="0">
-        <v>31.2</v>
+        <v>28.45</v>
       </c>
       <c r="AA39" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB39" t="n" s="0">
-        <v>30.54</v>
+        <v>28.17</v>
       </c>
       <c r="AC39" t="n" s="0">
-        <v>30.29</v>
+        <v>27.95</v>
       </c>
       <c r="AD39" s="870" t="n">
-        <v>31.65</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="41">
@@ -4686,94 +5136,94 @@
         <v>1</v>
       </c>
       <c r="B42" s="872" t="n">
-        <v>3.2701</v>
+        <v>3.2684</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>3.3311</v>
+        <v>3.3312</v>
       </c>
       <c r="D42" t="n" s="0">
         <v>3.3319</v>
       </c>
       <c r="E42" t="n" s="0">
-        <v>3.3327</v>
+        <v>3.3326</v>
       </c>
       <c r="F42" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G42" t="n" s="0">
         <v>3.3286</v>
       </c>
       <c r="H42" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3285</v>
       </c>
       <c r="I42" t="n" s="0">
         <v>3.3293</v>
       </c>
       <c r="J42" t="n" s="0">
-        <v>3.3341</v>
+        <v>3.3336</v>
       </c>
       <c r="K42" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3346</v>
       </c>
       <c r="L42" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M42" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N42" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O42" t="n" s="0">
         <v>3.3378</v>
       </c>
-      <c r="M42" t="n" s="0">
-        <v>3.3338</v>
-      </c>
-      <c r="N42" t="n" s="0">
+      <c r="P42" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q42" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R42" t="n" s="0">
         <v>3.3359</v>
       </c>
-      <c r="O42" t="n" s="0">
-        <v>3.3381</v>
-      </c>
-      <c r="P42" t="n" s="0">
-        <v>3.3355</v>
-      </c>
-      <c r="Q42" t="n" s="0">
-        <v>3.3323</v>
-      </c>
-      <c r="R42" t="n" s="0">
-        <v>3.3362</v>
-      </c>
       <c r="S42" t="n" s="0">
-        <v>3.3307</v>
+        <v>3.3308</v>
       </c>
       <c r="T42" s="926" t="n">
-        <v>3.3403</v>
+        <v>3.3399</v>
       </c>
       <c r="U42" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="V42" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3367</v>
       </c>
       <c r="W42" t="n" s="0">
-        <v>3.3392</v>
+        <v>3.3388</v>
       </c>
       <c r="X42" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3352</v>
       </c>
       <c r="Y42" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="Z42" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA42" t="n" s="0">
-        <v>3.3376</v>
+        <v>3.3372</v>
       </c>
       <c r="AB42" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3374</v>
       </c>
       <c r="AC42" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.3351</v>
       </c>
       <c r="AD42" t="n" s="0">
-        <v>3.328</v>
+        <v>3.3281</v>
       </c>
       <c r="AE42" t="n" s="0">
-        <v>96.62410000000001</v>
+        <v>96.61729999999999</v>
       </c>
     </row>
     <row r="43">
@@ -4781,91 +5231,91 @@
         <v>2</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>31.03</v>
+        <v>28.04</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E43" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F43" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G43" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H43" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I43" t="n" s="0">
-        <v>29.94</v>
+        <v>28.09</v>
       </c>
       <c r="J43" t="n" s="0">
-        <v>29.63</v>
+        <v>27.95</v>
       </c>
       <c r="K43" t="n" s="0">
-        <v>25.15</v>
+        <v>23.53</v>
       </c>
       <c r="L43" t="n" s="0">
-        <v>29.91</v>
+        <v>27.66</v>
       </c>
       <c r="M43" t="n" s="0">
-        <v>31.15</v>
+        <v>28.39</v>
       </c>
       <c r="N43" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O43" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P43" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q43" t="n" s="0">
-        <v>30.02</v>
+        <v>28.25</v>
       </c>
       <c r="R43" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S43" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T43" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U43" t="n" s="0">
-        <v>30.19</v>
+        <v>28.13</v>
       </c>
       <c r="V43" t="n" s="0">
-        <v>30.17</v>
+        <v>28.1</v>
       </c>
       <c r="W43" t="n" s="0">
-        <v>30.33</v>
+        <v>28.05</v>
       </c>
       <c r="X43" t="n" s="0">
-        <v>31.22</v>
+        <v>28.47</v>
       </c>
       <c r="Y43" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z43" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA43" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB43" t="n" s="0">
-        <v>30.54</v>
+        <v>28.17</v>
       </c>
       <c r="AC43" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD43" s="957" t="n">
-        <v>31.66</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="45">
@@ -4965,94 +5415,94 @@
         <v>1</v>
       </c>
       <c r="B46" s="959" t="n">
-        <v>3.2702</v>
+        <v>3.2685</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>3.3312</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>3.3326</v>
       </c>
       <c r="F46" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G46" t="n" s="0">
         <v>3.3286</v>
       </c>
       <c r="H46" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3285</v>
       </c>
       <c r="I46" t="n" s="0">
         <v>3.3293</v>
       </c>
       <c r="J46" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="K46" t="n" s="0">
-        <v>3.3347</v>
+        <v>3.3346</v>
       </c>
       <c r="L46" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="M46" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="N46" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O46" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P46" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q46" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R46" t="n" s="0">
+        <v>3.336</v>
+      </c>
+      <c r="S46" t="n" s="0">
+        <v>3.3309</v>
+      </c>
+      <c r="T46" s="1013" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U46" t="n" s="0">
         <v>3.3338</v>
       </c>
-      <c r="N46" t="n" s="0">
-        <v>3.336</v>
-      </c>
-      <c r="O46" t="n" s="0">
-        <v>3.3381</v>
-      </c>
-      <c r="P46" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Q46" t="n" s="0">
-        <v>3.3323</v>
-      </c>
-      <c r="R46" t="n" s="0">
-        <v>3.3362</v>
-      </c>
-      <c r="S46" t="n" s="0">
-        <v>3.3308</v>
-      </c>
-      <c r="T46" s="1013" t="n">
-        <v>3.3404</v>
-      </c>
-      <c r="U46" t="n" s="0">
-        <v>3.3339</v>
-      </c>
       <c r="V46" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3367</v>
       </c>
       <c r="W46" t="n" s="0">
-        <v>3.3392</v>
+        <v>3.3388</v>
       </c>
       <c r="X46" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3352</v>
       </c>
       <c r="Y46" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="Z46" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA46" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3371</v>
       </c>
       <c r="AB46" t="n" s="0">
-        <v>3.3379</v>
+        <v>3.3375</v>
       </c>
       <c r="AC46" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3351</v>
       </c>
       <c r="AD46" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.328</v>
       </c>
       <c r="AE46" t="n" s="0">
-        <v>96.62480000000002</v>
+        <v>96.618</v>
       </c>
     </row>
     <row r="47">
@@ -5060,91 +5510,91 @@
         <v>2</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>31.04</v>
+        <v>28.04</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>30.97</v>
+        <v>28.18</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E47" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F47" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G47" t="n" s="0">
-        <v>30.59</v>
+        <v>28.07</v>
       </c>
       <c r="H47" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I47" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J47" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K47" t="n" s="0">
-        <v>25.17</v>
+        <v>23.52</v>
       </c>
       <c r="L47" t="n" s="0">
-        <v>29.92</v>
+        <v>27.66</v>
       </c>
       <c r="M47" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N47" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O47" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P47" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q47" t="n" s="0">
-        <v>30.02</v>
+        <v>28.25</v>
       </c>
       <c r="R47" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S47" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T47" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U47" t="n" s="0">
-        <v>30.18</v>
+        <v>28.14</v>
       </c>
       <c r="V47" t="n" s="0">
-        <v>30.17</v>
+        <v>28.1</v>
       </c>
       <c r="W47" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X47" t="n" s="0">
-        <v>31.21</v>
+        <v>28.48</v>
       </c>
       <c r="Y47" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z47" t="n" s="0">
-        <v>31.2</v>
+        <v>28.45</v>
       </c>
       <c r="AA47" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB47" t="n" s="0">
-        <v>30.54</v>
+        <v>28.18</v>
       </c>
       <c r="AC47" t="n" s="0">
-        <v>30.29</v>
+        <v>27.96</v>
       </c>
       <c r="AD47" s="1044" t="n">
-        <v>31.66</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="49">
@@ -5244,94 +5694,94 @@
         <v>1</v>
       </c>
       <c r="B50" s="1046" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>3.3312</v>
+        <v>3.3311</v>
       </c>
       <c r="D50" t="n" s="0">
         <v>3.332</v>
       </c>
       <c r="E50" t="n" s="0">
-        <v>3.3326</v>
+        <v>3.3327</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>3.3294</v>
       </c>
       <c r="G50" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3287</v>
       </c>
       <c r="H50" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3285</v>
       </c>
       <c r="I50" t="n" s="0">
-        <v>3.3293</v>
+        <v>3.3292</v>
       </c>
       <c r="J50" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="K50" t="n" s="0">
-        <v>3.3348</v>
+        <v>3.3347</v>
       </c>
       <c r="L50" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="M50" t="n" s="0">
         <v>3.3337</v>
       </c>
       <c r="N50" t="n" s="0">
-        <v>3.3359</v>
+        <v>3.3356</v>
       </c>
       <c r="O50" t="n" s="0">
-        <v>3.338</v>
+        <v>3.3379</v>
       </c>
       <c r="P50" t="n" s="0">
         <v>3.3355</v>
       </c>
       <c r="Q50" t="n" s="0">
-        <v>3.3323</v>
+        <v>3.332</v>
       </c>
       <c r="R50" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.3359</v>
       </c>
       <c r="S50" t="n" s="0">
-        <v>3.3308</v>
+        <v>3.331</v>
       </c>
       <c r="T50" s="1100" t="n">
-        <v>3.3403</v>
+        <v>3.34</v>
       </c>
       <c r="U50" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="V50" t="n" s="0">
-        <v>3.3371</v>
+        <v>3.3367</v>
       </c>
       <c r="W50" t="n" s="0">
-        <v>3.3393</v>
+        <v>3.3388</v>
       </c>
       <c r="X50" t="n" s="0">
-        <v>3.3356</v>
+        <v>3.3352</v>
       </c>
       <c r="Y50" t="n" s="0">
-        <v>3.3346</v>
+        <v>3.3342</v>
       </c>
       <c r="Z50" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA50" t="n" s="0">
-        <v>3.3376</v>
+        <v>3.3372</v>
       </c>
       <c r="AB50" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3377</v>
       </c>
       <c r="AC50" t="n" s="0">
-        <v>3.3353</v>
+        <v>3.335</v>
       </c>
       <c r="AD50" t="n" s="0">
         <v>3.3281</v>
       </c>
       <c r="AE50" t="n" s="0">
-        <v>96.62450000000001</v>
+        <v>96.61849999999998</v>
       </c>
     </row>
     <row r="51">
@@ -5339,91 +5789,91 @@
         <v>2</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>31.03</v>
+        <v>28.05</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E51" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F51" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G51" t="n" s="0">
-        <v>30.59</v>
+        <v>28.07</v>
       </c>
       <c r="H51" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I51" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J51" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K51" t="n" s="0">
-        <v>25.16</v>
+        <v>23.52</v>
       </c>
       <c r="L51" t="n" s="0">
-        <v>29.91</v>
+        <v>27.65</v>
       </c>
       <c r="M51" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N51" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O51" t="n" s="0">
-        <v>29.67</v>
+        <v>27.6</v>
       </c>
       <c r="P51" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q51" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R51" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S51" t="n" s="0">
-        <v>30.91</v>
+        <v>28.47</v>
       </c>
       <c r="T51" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U51" t="n" s="0">
-        <v>30.19</v>
+        <v>28.14</v>
       </c>
       <c r="V51" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W51" t="n" s="0">
-        <v>30.34</v>
+        <v>28.06</v>
       </c>
       <c r="X51" t="n" s="0">
-        <v>31.22</v>
+        <v>28.48</v>
       </c>
       <c r="Y51" t="n" s="0">
-        <v>31.11</v>
+        <v>28.2</v>
       </c>
       <c r="Z51" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA51" t="n" s="0">
-        <v>30.42</v>
+        <v>27.94</v>
       </c>
       <c r="AB51" t="n" s="0">
-        <v>30.55</v>
+        <v>28.17</v>
       </c>
       <c r="AC51" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD51" s="1131" t="n">
-        <v>31.67</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="53">
@@ -5523,94 +5973,94 @@
         <v>1</v>
       </c>
       <c r="B54" s="1133" t="n">
-        <v>3.2701</v>
+        <v>3.2685</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>3.3313</v>
+        <v>3.3311</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>3.332</v>
+        <v>3.3319</v>
       </c>
       <c r="E54" t="n" s="0">
-        <v>3.3327</v>
+        <v>3.3325</v>
       </c>
       <c r="F54" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G54" t="n" s="0">
-        <v>3.3287</v>
+        <v>3.3286</v>
       </c>
       <c r="H54" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3283</v>
       </c>
       <c r="I54" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J54" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="K54" t="n" s="0">
+        <v>3.3348</v>
+      </c>
+      <c r="L54" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M54" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="N54" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O54" t="n" s="0">
+        <v>3.3378</v>
+      </c>
+      <c r="P54" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q54" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R54" t="n" s="0">
+        <v>3.336</v>
+      </c>
+      <c r="S54" t="n" s="0">
+        <v>3.331</v>
+      </c>
+      <c r="T54" s="1187" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U54" t="n" s="0">
+        <v>3.3338</v>
+      </c>
+      <c r="V54" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W54" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X54" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y54" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z54" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA54" t="n" s="0">
+        <v>3.3371</v>
+      </c>
+      <c r="AB54" t="n" s="0">
+        <v>3.3373</v>
+      </c>
+      <c r="AC54" t="n" s="0">
         <v>3.3349</v>
       </c>
-      <c r="L54" t="n" s="0">
-        <v>3.3378</v>
-      </c>
-      <c r="M54" t="n" s="0">
-        <v>3.3338</v>
-      </c>
-      <c r="N54" t="n" s="0">
-        <v>3.336</v>
-      </c>
-      <c r="O54" t="n" s="0">
-        <v>3.338</v>
-      </c>
-      <c r="P54" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Q54" t="n" s="0">
-        <v>3.3322</v>
-      </c>
-      <c r="R54" t="n" s="0">
-        <v>3.3361</v>
-      </c>
-      <c r="S54" t="n" s="0">
-        <v>3.3309</v>
-      </c>
-      <c r="T54" s="1187" t="n">
-        <v>3.3404</v>
-      </c>
-      <c r="U54" t="n" s="0">
-        <v>3.3339</v>
-      </c>
-      <c r="V54" t="n" s="0">
-        <v>3.3371</v>
-      </c>
-      <c r="W54" t="n" s="0">
-        <v>3.3392</v>
-      </c>
-      <c r="X54" t="n" s="0">
-        <v>3.3355</v>
-      </c>
-      <c r="Y54" t="n" s="0">
-        <v>3.3346</v>
-      </c>
-      <c r="Z54" t="n" s="0">
-        <v>3.3345</v>
-      </c>
-      <c r="AA54" t="n" s="0">
-        <v>3.3377</v>
-      </c>
-      <c r="AB54" t="n" s="0">
-        <v>3.3379</v>
-      </c>
-      <c r="AC54" t="n" s="0">
-        <v>3.3353</v>
-      </c>
       <c r="AD54" t="n" s="0">
-        <v>3.3282</v>
+        <v>3.3281</v>
       </c>
       <c r="AE54" t="n" s="0">
-        <v>96.62540000000001</v>
+        <v>96.6174</v>
       </c>
     </row>
     <row r="55">
@@ -5618,91 +6068,91 @@
         <v>2</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>31.03</v>
+        <v>28.04</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.97</v>
+        <v>28.18</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E55" t="n" s="0">
-        <v>31.04</v>
+        <v>28.38</v>
       </c>
       <c r="F55" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G55" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H55" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I55" t="n" s="0">
-        <v>29.93</v>
+        <v>28.08</v>
       </c>
       <c r="J55" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K55" t="n" s="0">
-        <v>25.15</v>
+        <v>23.52</v>
       </c>
       <c r="L55" t="n" s="0">
-        <v>29.92</v>
+        <v>27.65</v>
       </c>
       <c r="M55" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N55" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O55" t="n" s="0">
-        <v>29.67</v>
+        <v>27.6</v>
       </c>
       <c r="P55" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q55" t="n" s="0">
-        <v>30.02</v>
+        <v>28.24</v>
       </c>
       <c r="R55" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S55" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T55" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U55" t="n" s="0">
-        <v>30.19</v>
+        <v>28.13</v>
       </c>
       <c r="V55" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W55" t="n" s="0">
-        <v>30.34</v>
+        <v>28.05</v>
       </c>
       <c r="X55" t="n" s="0">
-        <v>31.22</v>
+        <v>28.47</v>
       </c>
       <c r="Y55" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z55" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA55" t="n" s="0">
-        <v>30.42</v>
+        <v>27.93</v>
       </c>
       <c r="AB55" t="n" s="0">
-        <v>30.55</v>
+        <v>28.17</v>
       </c>
       <c r="AC55" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD55" s="1218" t="n">
-        <v>31.67</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="57">
@@ -5802,94 +6252,94 @@
         <v>1</v>
       </c>
       <c r="B58" s="1220" t="n">
-        <v>3.2703</v>
+        <v>3.2684</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>3.3313</v>
+        <v>3.331</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>3.3321</v>
+        <v>3.3318</v>
       </c>
       <c r="E58" t="n" s="0">
-        <v>3.3327</v>
+        <v>3.3326</v>
       </c>
       <c r="F58" t="n" s="0">
         <v>3.3294</v>
       </c>
       <c r="G58" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3287</v>
       </c>
       <c r="H58" t="n" s="0">
         <v>3.3286</v>
       </c>
       <c r="I58" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J58" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="K58" t="n" s="0">
-        <v>3.3348</v>
+        <v>3.3347</v>
       </c>
       <c r="L58" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="M58" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3336</v>
       </c>
       <c r="N58" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.3356</v>
       </c>
       <c r="O58" t="n" s="0">
-        <v>3.3383</v>
+        <v>3.3378</v>
       </c>
       <c r="P58" t="n" s="0">
-        <v>3.3357</v>
+        <v>3.3354</v>
       </c>
       <c r="Q58" t="n" s="0">
-        <v>3.3322</v>
+        <v>3.3321</v>
       </c>
       <c r="R58" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.336</v>
       </c>
       <c r="S58" t="n" s="0">
-        <v>3.3308</v>
+        <v>3.3309</v>
       </c>
       <c r="T58" s="1274" t="n">
-        <v>3.3402</v>
+        <v>3.3398</v>
       </c>
       <c r="U58" t="n" s="0">
         <v>3.3338</v>
       </c>
       <c r="V58" t="n" s="0">
+        <v>3.3368</v>
+      </c>
+      <c r="W58" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X58" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y58" t="n" s="0">
+        <v>3.3343</v>
+      </c>
+      <c r="Z58" t="n" s="0">
+        <v>3.3341</v>
+      </c>
+      <c r="AA58" t="n" s="0">
         <v>3.337</v>
       </c>
-      <c r="W58" t="n" s="0">
-        <v>3.3391</v>
-      </c>
-      <c r="X58" t="n" s="0">
-        <v>3.3355</v>
-      </c>
-      <c r="Y58" t="n" s="0">
-        <v>3.3345</v>
-      </c>
-      <c r="Z58" t="n" s="0">
-        <v>3.3345</v>
-      </c>
-      <c r="AA58" t="n" s="0">
-        <v>3.3377</v>
-      </c>
       <c r="AB58" t="n" s="0">
-        <v>3.3379</v>
+        <v>3.3375</v>
       </c>
       <c r="AC58" t="n" s="0">
-        <v>3.3353</v>
+        <v>3.3349</v>
       </c>
       <c r="AD58" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.3279</v>
       </c>
       <c r="AE58" t="n" s="0">
-        <v>96.62540000000003</v>
+        <v>96.61720000000001</v>
       </c>
     </row>
     <row r="59">
@@ -5897,91 +6347,91 @@
         <v>2</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>31.03</v>
+        <v>28.04</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.96</v>
+        <v>28.18</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E59" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F59" t="n" s="0">
-        <v>29.87</v>
+        <v>27.39</v>
       </c>
       <c r="G59" t="n" s="0">
-        <v>30.58</v>
+        <v>28.07</v>
       </c>
       <c r="H59" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I59" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J59" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K59" t="n" s="0">
-        <v>25.16</v>
+        <v>23.51</v>
       </c>
       <c r="L59" t="n" s="0">
-        <v>29.91</v>
+        <v>27.66</v>
       </c>
       <c r="M59" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N59" t="n" s="0">
-        <v>30.26</v>
+        <v>27.69</v>
       </c>
       <c r="O59" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P59" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q59" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R59" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S59" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T59" t="n" s="0">
-        <v>30.56</v>
+        <v>28.2</v>
       </c>
       <c r="U59" t="n" s="0">
-        <v>30.18</v>
+        <v>28.14</v>
       </c>
       <c r="V59" t="n" s="0">
-        <v>30.17</v>
+        <v>28.1</v>
       </c>
       <c r="W59" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X59" t="n" s="0">
-        <v>31.22</v>
+        <v>28.47</v>
       </c>
       <c r="Y59" t="n" s="0">
-        <v>31.1</v>
+        <v>28.2</v>
       </c>
       <c r="Z59" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA59" t="n" s="0">
-        <v>30.41</v>
+        <v>27.94</v>
       </c>
       <c r="AB59" t="n" s="0">
-        <v>30.54</v>
+        <v>28.18</v>
       </c>
       <c r="AC59" t="n" s="0">
-        <v>30.3</v>
+        <v>27.96</v>
       </c>
       <c r="AD59" s="1305" t="n">
-        <v>31.67</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="61">
@@ -6081,94 +6531,94 @@
         <v>1</v>
       </c>
       <c r="B62" s="1307" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>3.3312</v>
+        <v>3.3311</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>3.3318</v>
+        <v>3.3319</v>
       </c>
       <c r="E62" t="n" s="0">
-        <v>3.3328</v>
+        <v>3.3326</v>
       </c>
       <c r="F62" t="n" s="0">
-        <v>3.3295</v>
+        <v>3.3293</v>
       </c>
       <c r="G62" t="n" s="0">
-        <v>3.3287</v>
+        <v>3.3286</v>
       </c>
       <c r="H62" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3285</v>
       </c>
       <c r="I62" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J62" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="K62" t="n" s="0">
-        <v>3.3348</v>
+        <v>3.3347</v>
       </c>
       <c r="L62" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="M62" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3337</v>
       </c>
       <c r="N62" t="n" s="0">
-        <v>3.3361</v>
+        <v>3.3358</v>
       </c>
       <c r="O62" t="n" s="0">
-        <v>3.3381</v>
+        <v>3.3379</v>
       </c>
       <c r="P62" t="n" s="0">
-        <v>3.3358</v>
+        <v>3.3354</v>
       </c>
       <c r="Q62" t="n" s="0">
-        <v>3.3323</v>
+        <v>3.3321</v>
       </c>
       <c r="R62" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.336</v>
       </c>
       <c r="S62" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T62" s="1361" t="n">
-        <v>3.3405</v>
+        <v>3.34</v>
       </c>
       <c r="U62" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="V62" t="n" s="0">
+        <v>3.3368</v>
+      </c>
+      <c r="W62" t="n" s="0">
+        <v>3.3387</v>
+      </c>
+      <c r="X62" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="Y62" t="n" s="0">
+        <v>3.3343</v>
+      </c>
+      <c r="Z62" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA62" t="n" s="0">
         <v>3.3371</v>
       </c>
-      <c r="W62" t="n" s="0">
-        <v>3.3393</v>
-      </c>
-      <c r="X62" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Y62" t="n" s="0">
-        <v>3.3345</v>
-      </c>
-      <c r="Z62" t="n" s="0">
-        <v>3.3344</v>
-      </c>
-      <c r="AA62" t="n" s="0">
-        <v>3.3377</v>
-      </c>
       <c r="AB62" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="AC62" t="n" s="0">
-        <v>3.3353</v>
+        <v>3.335</v>
       </c>
       <c r="AD62" t="n" s="0">
         <v>3.3281</v>
       </c>
       <c r="AE62" t="n" s="0">
-        <v>96.62570000000001</v>
+        <v>96.61789999999999</v>
       </c>
     </row>
     <row r="63">
@@ -6176,91 +6626,91 @@
         <v>2</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>31.04</v>
+        <v>28.05</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.96</v>
+        <v>28.19</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E63" t="n" s="0">
-        <v>31.04</v>
+        <v>28.38</v>
       </c>
       <c r="F63" t="n" s="0">
-        <v>29.87</v>
+        <v>27.39</v>
       </c>
       <c r="G63" t="n" s="0">
-        <v>30.59</v>
+        <v>28.08</v>
       </c>
       <c r="H63" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I63" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J63" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K63" t="n" s="0">
-        <v>25.16</v>
+        <v>23.51</v>
       </c>
       <c r="L63" t="n" s="0">
-        <v>29.91</v>
+        <v>27.65</v>
       </c>
       <c r="M63" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N63" t="n" s="0">
-        <v>30.25</v>
+        <v>27.69</v>
       </c>
       <c r="O63" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P63" t="n" s="0">
-        <v>29.71</v>
+        <v>27.69</v>
       </c>
       <c r="Q63" t="n" s="0">
-        <v>30.01</v>
+        <v>28.25</v>
       </c>
       <c r="R63" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S63" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T63" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U63" t="n" s="0">
-        <v>30.19</v>
+        <v>28.13</v>
       </c>
       <c r="V63" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W63" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X63" t="n" s="0">
-        <v>31.22</v>
+        <v>28.48</v>
       </c>
       <c r="Y63" t="n" s="0">
-        <v>31.11</v>
+        <v>28.2</v>
       </c>
       <c r="Z63" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA63" t="n" s="0">
-        <v>30.42</v>
+        <v>27.94</v>
       </c>
       <c r="AB63" t="n" s="0">
-        <v>30.56</v>
+        <v>28.18</v>
       </c>
       <c r="AC63" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD63" s="1392" t="n">
-        <v>31.67</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="65">
@@ -6360,13 +6810,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="1394" t="n">
-        <v>3.2702</v>
+        <v>3.2686</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>3.3311</v>
+        <v>3.3312</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>3.3319</v>
+        <v>3.332</v>
       </c>
       <c r="E66" t="n" s="0">
         <v>3.3326</v>
@@ -6378,76 +6828,76 @@
         <v>3.3286</v>
       </c>
       <c r="H66" t="n" s="0">
-        <v>3.3284</v>
+        <v>3.3285</v>
       </c>
       <c r="I66" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J66" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="K66" t="n" s="0">
         <v>3.3347</v>
       </c>
       <c r="L66" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3374</v>
       </c>
       <c r="M66" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3336</v>
       </c>
       <c r="N66" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O66" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P66" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q66" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R66" t="n" s="0">
         <v>3.3359</v>
-      </c>
-      <c r="O66" t="n" s="0">
-        <v>3.338</v>
-      </c>
-      <c r="P66" t="n" s="0">
-        <v>3.3356</v>
-      </c>
-      <c r="Q66" t="n" s="0">
-        <v>3.3323</v>
-      </c>
-      <c r="R66" t="n" s="0">
-        <v>3.3361</v>
       </c>
       <c r="S66" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T66" s="1448" t="n">
-        <v>3.3404</v>
+        <v>3.3398</v>
       </c>
       <c r="U66" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="V66" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3368</v>
       </c>
       <c r="W66" t="n" s="0">
-        <v>3.3391</v>
+        <v>3.3388</v>
       </c>
       <c r="X66" t="n" s="0">
-        <v>3.3355</v>
+        <v>3.3352</v>
       </c>
       <c r="Y66" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="Z66" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3341</v>
       </c>
       <c r="AA66" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3371</v>
       </c>
       <c r="AB66" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="AC66" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.335</v>
       </c>
       <c r="AD66" t="n" s="0">
         <v>3.3281</v>
       </c>
       <c r="AE66" t="n" s="0">
-        <v>96.62420000000003</v>
+        <v>96.6178</v>
       </c>
     </row>
     <row r="67">
@@ -6455,91 +6905,91 @@
         <v>2</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>31.04</v>
+        <v>28.05</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.97</v>
+        <v>28.19</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>29.62</v>
+        <v>27.21</v>
       </c>
       <c r="E67" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F67" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G67" t="n" s="0">
-        <v>30.59</v>
+        <v>28.07</v>
       </c>
       <c r="H67" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I67" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J67" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K67" t="n" s="0">
-        <v>25.17</v>
+        <v>23.52</v>
       </c>
       <c r="L67" t="n" s="0">
-        <v>29.91</v>
+        <v>27.65</v>
       </c>
       <c r="M67" t="n" s="0">
-        <v>31.17</v>
+        <v>28.39</v>
       </c>
       <c r="N67" t="n" s="0">
-        <v>30.26</v>
+        <v>27.7</v>
       </c>
       <c r="O67" t="n" s="0">
-        <v>29.67</v>
+        <v>27.6</v>
       </c>
       <c r="P67" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q67" t="n" s="0">
-        <v>30.02</v>
+        <v>28.25</v>
       </c>
       <c r="R67" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S67" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T67" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U67" t="n" s="0">
-        <v>30.19</v>
+        <v>28.13</v>
       </c>
       <c r="V67" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W67" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X67" t="n" s="0">
-        <v>31.22</v>
+        <v>28.48</v>
       </c>
       <c r="Y67" t="n" s="0">
-        <v>31.11</v>
+        <v>28.19</v>
       </c>
       <c r="Z67" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA67" t="n" s="0">
-        <v>30.42</v>
+        <v>27.94</v>
       </c>
       <c r="AB67" t="n" s="0">
-        <v>30.55</v>
+        <v>28.17</v>
       </c>
       <c r="AC67" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD67" s="1479" t="n">
-        <v>31.67</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="69">
@@ -6639,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="1481" t="n">
-        <v>3.2702</v>
+        <v>3.2686</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>3.3312</v>
@@ -6651,82 +7101,82 @@
         <v>3.3327</v>
       </c>
       <c r="F70" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3293</v>
       </c>
       <c r="G70" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3285</v>
       </c>
       <c r="H70" t="n" s="0">
-        <v>3.3286</v>
+        <v>3.3285</v>
       </c>
       <c r="I70" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J70" t="n" s="0">
-        <v>3.334</v>
+        <v>3.3337</v>
       </c>
       <c r="K70" t="n" s="0">
-        <v>3.3348</v>
+        <v>3.3346</v>
       </c>
       <c r="L70" t="n" s="0">
-        <v>3.3377</v>
+        <v>3.3375</v>
       </c>
       <c r="M70" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3337</v>
       </c>
       <c r="N70" t="n" s="0">
-        <v>3.3359</v>
+        <v>3.3356</v>
       </c>
       <c r="O70" t="n" s="0">
-        <v>3.3381</v>
+        <v>3.3378</v>
       </c>
       <c r="P70" t="n" s="0">
-        <v>3.3356</v>
+        <v>3.3353</v>
       </c>
       <c r="Q70" t="n" s="0">
-        <v>3.3323</v>
+        <v>3.3321</v>
       </c>
       <c r="R70" t="n" s="0">
-        <v>3.3361</v>
+        <v>3.336</v>
       </c>
       <c r="S70" t="n" s="0">
-        <v>3.331</v>
+        <v>3.3309</v>
       </c>
       <c r="T70" s="1535" t="n">
-        <v>3.3404</v>
+        <v>3.3398</v>
       </c>
       <c r="U70" t="n" s="0">
-        <v>3.3338</v>
+        <v>3.3337</v>
       </c>
       <c r="V70" t="n" s="0">
-        <v>3.337</v>
+        <v>3.3367</v>
       </c>
       <c r="W70" t="n" s="0">
-        <v>3.3392</v>
+        <v>3.3387</v>
       </c>
       <c r="X70" t="n" s="0">
-        <v>3.3355</v>
+        <v>3.3352</v>
       </c>
       <c r="Y70" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3343</v>
       </c>
       <c r="Z70" t="n" s="0">
-        <v>3.3344</v>
+        <v>3.3342</v>
       </c>
       <c r="AA70" t="n" s="0">
-        <v>3.3375</v>
+        <v>3.3371</v>
       </c>
       <c r="AB70" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3374</v>
       </c>
       <c r="AC70" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.3351</v>
       </c>
       <c r="AD70" t="n" s="0">
-        <v>3.3281</v>
+        <v>3.3282</v>
       </c>
       <c r="AE70" t="n" s="0">
-        <v>96.62450000000003</v>
+        <v>96.61759999999997</v>
       </c>
     </row>
     <row r="71">
@@ -6734,91 +7184,91 @@
         <v>2</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>31.04</v>
+        <v>28.04</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>30.97</v>
+        <v>28.18</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>29.62</v>
+        <v>27.2</v>
       </c>
       <c r="E71" t="n" s="0">
-        <v>31.05</v>
+        <v>28.38</v>
       </c>
       <c r="F71" t="n" s="0">
-        <v>29.87</v>
+        <v>27.39</v>
       </c>
       <c r="G71" t="n" s="0">
-        <v>30.59</v>
+        <v>28.07</v>
       </c>
       <c r="H71" t="n" s="0">
-        <v>29.89</v>
+        <v>27.93</v>
       </c>
       <c r="I71" t="n" s="0">
-        <v>29.93</v>
+        <v>28.08</v>
       </c>
       <c r="J71" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K71" t="n" s="0">
-        <v>25.16</v>
+        <v>23.51</v>
       </c>
       <c r="L71" t="n" s="0">
-        <v>29.92</v>
+        <v>27.65</v>
       </c>
       <c r="M71" t="n" s="0">
-        <v>31.17</v>
+        <v>28.39</v>
       </c>
       <c r="N71" t="n" s="0">
-        <v>30.26</v>
+        <v>27.69</v>
       </c>
       <c r="O71" t="n" s="0">
-        <v>29.67</v>
+        <v>27.6</v>
       </c>
       <c r="P71" t="n" s="0">
-        <v>29.72</v>
+        <v>27.68</v>
       </c>
       <c r="Q71" t="n" s="0">
-        <v>30.02</v>
+        <v>28.24</v>
       </c>
       <c r="R71" t="n" s="0">
-        <v>29.62</v>
+        <v>27.49</v>
       </c>
       <c r="S71" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T71" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U71" t="n" s="0">
-        <v>30.18</v>
+        <v>28.14</v>
       </c>
       <c r="V71" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W71" t="n" s="0">
-        <v>30.33</v>
+        <v>28.06</v>
       </c>
       <c r="X71" t="n" s="0">
-        <v>31.22</v>
+        <v>28.48</v>
       </c>
       <c r="Y71" t="n" s="0">
-        <v>31.1</v>
+        <v>28.19</v>
       </c>
       <c r="Z71" t="n" s="0">
-        <v>31.2</v>
+        <v>28.45</v>
       </c>
       <c r="AA71" t="n" s="0">
-        <v>30.42</v>
+        <v>27.94</v>
       </c>
       <c r="AB71" t="n" s="0">
-        <v>30.54</v>
+        <v>28.18</v>
       </c>
       <c r="AC71" t="n" s="0">
-        <v>30.29</v>
+        <v>27.96</v>
       </c>
       <c r="AD71" s="1566" t="n">
-        <v>31.67</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="73">
@@ -6918,19 +7368,19 @@
         <v>1</v>
       </c>
       <c r="B74" s="1568" t="n">
-        <v>3.2702</v>
+        <v>3.2684</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>3.3312</v>
+        <v>3.3311</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>3.3319</v>
+        <v>3.332</v>
       </c>
       <c r="E74" t="n" s="0">
         <v>3.3327</v>
       </c>
       <c r="F74" t="n" s="0">
-        <v>3.3294</v>
+        <v>3.3295</v>
       </c>
       <c r="G74" t="n" s="0">
         <v>3.3286</v>
@@ -6939,73 +7389,73 @@
         <v>3.3286</v>
       </c>
       <c r="I74" t="n" s="0">
-        <v>3.3292</v>
+        <v>3.3293</v>
       </c>
       <c r="J74" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3338</v>
       </c>
       <c r="K74" t="n" s="0">
-        <v>3.3349</v>
+        <v>3.3348</v>
       </c>
       <c r="L74" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="M74" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="N74" t="n" s="0">
-        <v>3.3361</v>
+        <v>3.3358</v>
       </c>
       <c r="O74" t="n" s="0">
-        <v>3.338</v>
+        <v>3.3379</v>
       </c>
       <c r="P74" t="n" s="0">
-        <v>3.3356</v>
+        <v>3.3354</v>
       </c>
       <c r="Q74" t="n" s="0">
-        <v>3.3323</v>
+        <v>3.3321</v>
       </c>
       <c r="R74" t="n" s="0">
-        <v>3.3362</v>
+        <v>3.3359</v>
       </c>
       <c r="S74" t="n" s="0">
         <v>3.3309</v>
       </c>
       <c r="T74" s="1622" t="n">
-        <v>3.3404</v>
+        <v>3.3398</v>
       </c>
       <c r="U74" t="n" s="0">
-        <v>3.3339</v>
+        <v>3.3337</v>
       </c>
       <c r="V74" t="n" s="0">
-        <v>3.3372</v>
+        <v>3.3367</v>
       </c>
       <c r="W74" t="n" s="0">
-        <v>3.3393</v>
+        <v>3.3387</v>
       </c>
       <c r="X74" t="n" s="0">
-        <v>3.3354</v>
+        <v>3.3351</v>
       </c>
       <c r="Y74" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="Z74" t="n" s="0">
-        <v>3.3345</v>
+        <v>3.3342</v>
       </c>
       <c r="AA74" t="n" s="0">
-        <v>3.3376</v>
+        <v>3.3371</v>
       </c>
       <c r="AB74" t="n" s="0">
-        <v>3.3378</v>
+        <v>3.3375</v>
       </c>
       <c r="AC74" t="n" s="0">
-        <v>3.3352</v>
+        <v>3.335</v>
       </c>
       <c r="AD74" t="n" s="0">
         <v>3.3281</v>
       </c>
       <c r="AE74" t="n" s="0">
-        <v>96.62530000000002</v>
+        <v>96.61809999999998</v>
       </c>
     </row>
     <row r="75">
@@ -7013,91 +7463,1486 @@
         <v>2</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>31.04</v>
+        <v>28.05</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>30.96</v>
+        <v>28.18</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>29.61</v>
+        <v>27.21</v>
       </c>
       <c r="E75" t="n" s="0">
-        <v>31.05</v>
+        <v>28.39</v>
       </c>
       <c r="F75" t="n" s="0">
-        <v>29.87</v>
+        <v>27.4</v>
       </c>
       <c r="G75" t="n" s="0">
-        <v>30.59</v>
+        <v>28.07</v>
       </c>
       <c r="H75" t="n" s="0">
-        <v>29.88</v>
+        <v>27.93</v>
       </c>
       <c r="I75" t="n" s="0">
-        <v>29.93</v>
+        <v>28.09</v>
       </c>
       <c r="J75" t="n" s="0">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="K75" t="n" s="0">
-        <v>25.16</v>
+        <v>23.51</v>
       </c>
       <c r="L75" t="n" s="0">
-        <v>29.92</v>
+        <v>27.66</v>
       </c>
       <c r="M75" t="n" s="0">
-        <v>31.16</v>
+        <v>28.39</v>
       </c>
       <c r="N75" t="n" s="0">
-        <v>30.26</v>
+        <v>27.7</v>
       </c>
       <c r="O75" t="n" s="0">
-        <v>29.66</v>
+        <v>27.6</v>
       </c>
       <c r="P75" t="n" s="0">
-        <v>29.72</v>
+        <v>27.69</v>
       </c>
       <c r="Q75" t="n" s="0">
-        <v>30.02</v>
+        <v>28.24</v>
       </c>
       <c r="R75" t="n" s="0">
-        <v>29.61</v>
+        <v>27.49</v>
       </c>
       <c r="S75" t="n" s="0">
-        <v>30.92</v>
+        <v>28.47</v>
       </c>
       <c r="T75" t="n" s="0">
-        <v>30.57</v>
+        <v>28.2</v>
       </c>
       <c r="U75" t="n" s="0">
-        <v>30.19</v>
+        <v>28.14</v>
       </c>
       <c r="V75" t="n" s="0">
-        <v>30.17</v>
+        <v>28.09</v>
       </c>
       <c r="W75" t="n" s="0">
-        <v>30.34</v>
+        <v>28.06</v>
       </c>
       <c r="X75" t="n" s="0">
-        <v>31.22</v>
+        <v>28.48</v>
       </c>
       <c r="Y75" t="n" s="0">
-        <v>31.1</v>
+        <v>28.2</v>
       </c>
       <c r="Z75" t="n" s="0">
-        <v>31.21</v>
+        <v>28.45</v>
       </c>
       <c r="AA75" t="n" s="0">
-        <v>30.42</v>
+        <v>27.94</v>
       </c>
       <c r="AB75" t="n" s="0">
-        <v>30.55</v>
+        <v>28.17</v>
       </c>
       <c r="AC75" t="n" s="0">
-        <v>30.3</v>
+        <v>27.95</v>
       </c>
       <c r="AD75" s="1653" t="n">
-        <v>31.67</v>
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E77" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G77" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H77" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I77" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J77" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K77" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L77" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="M77" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="N77" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="O77" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="P77" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="Q77" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="R77" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="S77" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="T77" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="U77" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="V77" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="W77" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="X77" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="Y77" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="Z77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="AA77" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="AB77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="AC77" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="AD77" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1655" t="n">
+        <v>3.2685</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>3.3312</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>3.3318</v>
+      </c>
+      <c r="E78" t="n" s="0">
+        <v>3.3326</v>
+      </c>
+      <c r="F78" t="n" s="0">
+        <v>3.3293</v>
+      </c>
+      <c r="G78" t="n" s="0">
+        <v>3.3287</v>
+      </c>
+      <c r="H78" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="I78" t="n" s="0">
+        <v>3.3292</v>
+      </c>
+      <c r="J78" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="K78" t="n" s="0">
+        <v>3.3345</v>
+      </c>
+      <c r="L78" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="M78" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="N78" t="n" s="0">
+        <v>3.3356</v>
+      </c>
+      <c r="O78" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P78" t="n" s="0">
+        <v>3.3354</v>
+      </c>
+      <c r="Q78" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R78" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="S78" t="n" s="0">
+        <v>3.331</v>
+      </c>
+      <c r="T78" s="1709" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U78" t="n" s="0">
+        <v>3.3339</v>
+      </c>
+      <c r="V78" t="n" s="0">
+        <v>3.3368</v>
+      </c>
+      <c r="W78" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X78" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y78" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z78" t="n" s="0">
+        <v>3.3341</v>
+      </c>
+      <c r="AA78" t="n" s="0">
+        <v>3.3372</v>
+      </c>
+      <c r="AB78" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="AC78" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="AD78" t="n" s="0">
+        <v>3.328</v>
+      </c>
+      <c r="AE78" t="n" s="0">
+        <v>96.6178</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>28.05</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>28.19</v>
+      </c>
+      <c r="D79" t="n" s="0">
+        <v>27.21</v>
+      </c>
+      <c r="E79" t="n" s="0">
+        <v>28.38</v>
+      </c>
+      <c r="F79" t="n" s="0">
+        <v>27.4</v>
+      </c>
+      <c r="G79" t="n" s="0">
+        <v>28.07</v>
+      </c>
+      <c r="H79" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="I79" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="J79" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="K79" t="n" s="0">
+        <v>23.51</v>
+      </c>
+      <c r="L79" t="n" s="0">
+        <v>27.65</v>
+      </c>
+      <c r="M79" t="n" s="0">
+        <v>28.39</v>
+      </c>
+      <c r="N79" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="O79" t="n" s="0">
+        <v>27.6</v>
+      </c>
+      <c r="P79" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="Q79" t="n" s="0">
+        <v>28.25</v>
+      </c>
+      <c r="R79" t="n" s="0">
+        <v>27.49</v>
+      </c>
+      <c r="S79" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="T79" t="n" s="0">
+        <v>28.2</v>
+      </c>
+      <c r="U79" t="n" s="0">
+        <v>28.13</v>
+      </c>
+      <c r="V79" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="W79" t="n" s="0">
+        <v>28.06</v>
+      </c>
+      <c r="X79" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="Y79" t="n" s="0">
+        <v>28.2</v>
+      </c>
+      <c r="Z79" t="n" s="0">
+        <v>28.45</v>
+      </c>
+      <c r="AA79" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="AB79" t="n" s="0">
+        <v>28.18</v>
+      </c>
+      <c r="AC79" t="n" s="0">
+        <v>27.95</v>
+      </c>
+      <c r="AD79" s="1740" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E81" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G81" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H81" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I81" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J81" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K81" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L81" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="M81" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="N81" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="O81" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="P81" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="Q81" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="R81" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="S81" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="T81" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="U81" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="V81" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="W81" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="X81" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="Y81" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="Z81" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="AA81" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="AB81" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="AC81" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="AD81" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1742" t="n">
+        <v>3.2684</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>3.3311</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>3.3319</v>
+      </c>
+      <c r="E82" t="n" s="0">
+        <v>3.3326</v>
+      </c>
+      <c r="F82" t="n" s="0">
+        <v>3.3294</v>
+      </c>
+      <c r="G82" t="n" s="0">
+        <v>3.3287</v>
+      </c>
+      <c r="H82" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="I82" t="n" s="0">
+        <v>3.3292</v>
+      </c>
+      <c r="J82" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="K82" t="n" s="0">
+        <v>3.3347</v>
+      </c>
+      <c r="L82" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="M82" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N82" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O82" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P82" t="n" s="0">
+        <v>3.3353</v>
+      </c>
+      <c r="Q82" t="n" s="0">
+        <v>3.332</v>
+      </c>
+      <c r="R82" t="n" s="0">
+        <v>3.3359</v>
+      </c>
+      <c r="S82" t="n" s="0">
+        <v>3.3309</v>
+      </c>
+      <c r="T82" s="1796" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U82" t="n" s="0">
+        <v>3.3338</v>
+      </c>
+      <c r="V82" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W82" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X82" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="Y82" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z82" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA82" t="n" s="0">
+        <v>3.3372</v>
+      </c>
+      <c r="AB82" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="AC82" t="n" s="0">
+        <v>3.335</v>
+      </c>
+      <c r="AD82" t="n" s="0">
+        <v>3.328</v>
+      </c>
+      <c r="AE82" t="n" s="0">
+        <v>96.61749999999998</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>28.05</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>28.19</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>27.2</v>
+      </c>
+      <c r="E83" t="n" s="0">
+        <v>28.38</v>
+      </c>
+      <c r="F83" t="n" s="0">
+        <v>27.4</v>
+      </c>
+      <c r="G83" t="n" s="0">
+        <v>28.07</v>
+      </c>
+      <c r="H83" t="n" s="0">
+        <v>27.93</v>
+      </c>
+      <c r="I83" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="J83" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="K83" t="n" s="0">
+        <v>23.51</v>
+      </c>
+      <c r="L83" t="n" s="0">
+        <v>27.65</v>
+      </c>
+      <c r="M83" t="n" s="0">
+        <v>28.39</v>
+      </c>
+      <c r="N83" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="O83" t="n" s="0">
+        <v>27.6</v>
+      </c>
+      <c r="P83" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="Q83" t="n" s="0">
+        <v>28.25</v>
+      </c>
+      <c r="R83" t="n" s="0">
+        <v>27.5</v>
+      </c>
+      <c r="S83" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="T83" t="n" s="0">
+        <v>28.19</v>
+      </c>
+      <c r="U83" t="n" s="0">
+        <v>28.13</v>
+      </c>
+      <c r="V83" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="W83" t="n" s="0">
+        <v>28.06</v>
+      </c>
+      <c r="X83" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="Y83" t="n" s="0">
+        <v>28.19</v>
+      </c>
+      <c r="Z83" t="n" s="0">
+        <v>28.45</v>
+      </c>
+      <c r="AA83" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="AB83" t="n" s="0">
+        <v>28.17</v>
+      </c>
+      <c r="AC83" t="n" s="0">
+        <v>27.95</v>
+      </c>
+      <c r="AD83" s="1827" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E85" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F85" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G85" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H85" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I85" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J85" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K85" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L85" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="M85" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="N85" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="O85" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="P85" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="Q85" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="R85" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="S85" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="T85" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="U85" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="V85" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="W85" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="X85" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="Y85" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="Z85" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="AA85" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="AB85" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="AC85" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="AD85" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1829" t="n">
+        <v>3.2684</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>3.3311</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>3.3318</v>
+      </c>
+      <c r="E86" t="n" s="0">
+        <v>3.3326</v>
+      </c>
+      <c r="F86" t="n" s="0">
+        <v>3.3293</v>
+      </c>
+      <c r="G86" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="H86" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="I86" t="n" s="0">
+        <v>3.3293</v>
+      </c>
+      <c r="J86" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="K86" t="n" s="0">
+        <v>3.3346</v>
+      </c>
+      <c r="L86" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M86" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N86" t="n" s="0">
+        <v>3.3357</v>
+      </c>
+      <c r="O86" t="n" s="0">
+        <v>3.3377</v>
+      </c>
+      <c r="P86" t="n" s="0">
+        <v>3.3353</v>
+      </c>
+      <c r="Q86" t="n" s="0">
+        <v>3.3319</v>
+      </c>
+      <c r="R86" t="n" s="0">
+        <v>3.3359</v>
+      </c>
+      <c r="S86" t="n" s="0">
+        <v>3.3309</v>
+      </c>
+      <c r="T86" s="1883" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U86" t="n" s="0">
+        <v>3.3338</v>
+      </c>
+      <c r="V86" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W86" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X86" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y86" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z86" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA86" t="n" s="0">
+        <v>3.3372</v>
+      </c>
+      <c r="AB86" t="n" s="0">
+        <v>3.3376</v>
+      </c>
+      <c r="AC86" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="AD86" t="n" s="0">
+        <v>3.3281</v>
+      </c>
+      <c r="AE86" t="n" s="0">
+        <v>96.61699999999998</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>28.04</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>28.18</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>27.2</v>
+      </c>
+      <c r="E87" t="n" s="0">
+        <v>28.38</v>
+      </c>
+      <c r="F87" t="n" s="0">
+        <v>27.39</v>
+      </c>
+      <c r="G87" t="n" s="0">
+        <v>28.07</v>
+      </c>
+      <c r="H87" t="n" s="0">
+        <v>27.93</v>
+      </c>
+      <c r="I87" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="J87" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="K87" t="n" s="0">
+        <v>23.51</v>
+      </c>
+      <c r="L87" t="n" s="0">
+        <v>27.65</v>
+      </c>
+      <c r="M87" t="n" s="0">
+        <v>28.4</v>
+      </c>
+      <c r="N87" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="O87" t="n" s="0">
+        <v>27.6</v>
+      </c>
+      <c r="P87" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="Q87" t="n" s="0">
+        <v>28.25</v>
+      </c>
+      <c r="R87" t="n" s="0">
+        <v>27.49</v>
+      </c>
+      <c r="S87" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="T87" t="n" s="0">
+        <v>28.2</v>
+      </c>
+      <c r="U87" t="n" s="0">
+        <v>28.14</v>
+      </c>
+      <c r="V87" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="W87" t="n" s="0">
+        <v>28.05</v>
+      </c>
+      <c r="X87" t="n" s="0">
+        <v>28.48</v>
+      </c>
+      <c r="Y87" t="n" s="0">
+        <v>28.19</v>
+      </c>
+      <c r="Z87" t="n" s="0">
+        <v>28.45</v>
+      </c>
+      <c r="AA87" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="AB87" t="n" s="0">
+        <v>28.18</v>
+      </c>
+      <c r="AC87" t="n" s="0">
+        <v>27.95</v>
+      </c>
+      <c r="AD87" s="1914" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E89" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F89" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G89" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H89" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I89" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J89" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K89" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L89" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="M89" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="N89" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="O89" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="P89" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="Q89" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="R89" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="S89" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="T89" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="U89" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="V89" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="W89" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="X89" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="Y89" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="Z89" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="AA89" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="AB89" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="AC89" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="AD89" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1916" t="n">
+        <v>3.2684</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>3.331</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>3.3318</v>
+      </c>
+      <c r="E90" t="n" s="0">
+        <v>3.3327</v>
+      </c>
+      <c r="F90" t="n" s="0">
+        <v>3.3293</v>
+      </c>
+      <c r="G90" t="n" s="0">
+        <v>3.3286</v>
+      </c>
+      <c r="H90" t="n" s="0">
+        <v>3.3286</v>
+      </c>
+      <c r="I90" t="n" s="0">
+        <v>3.3291</v>
+      </c>
+      <c r="J90" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="K90" t="n" s="0">
+        <v>3.3347</v>
+      </c>
+      <c r="L90" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M90" t="n" s="0">
+        <v>3.3336</v>
+      </c>
+      <c r="N90" t="n" s="0">
+        <v>3.3358</v>
+      </c>
+      <c r="O90" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P90" t="n" s="0">
+        <v>3.3353</v>
+      </c>
+      <c r="Q90" t="n" s="0">
+        <v>3.332</v>
+      </c>
+      <c r="R90" t="n" s="0">
+        <v>3.3359</v>
+      </c>
+      <c r="S90" t="n" s="0">
+        <v>3.331</v>
+      </c>
+      <c r="T90" s="1970" t="n">
+        <v>3.3398</v>
+      </c>
+      <c r="U90" t="n" s="0">
+        <v>3.3338</v>
+      </c>
+      <c r="V90" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W90" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X90" t="n" s="0">
+        <v>3.3351</v>
+      </c>
+      <c r="Y90" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="Z90" t="n" s="0">
+        <v>3.3342</v>
+      </c>
+      <c r="AA90" t="n" s="0">
+        <v>3.3371</v>
+      </c>
+      <c r="AB90" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="AC90" t="n" s="0">
+        <v>3.335</v>
+      </c>
+      <c r="AD90" t="n" s="0">
+        <v>3.3279</v>
+      </c>
+      <c r="AE90" t="n" s="0">
+        <v>96.61689999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>28.04</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>28.19</v>
+      </c>
+      <c r="D91" t="n" s="0">
+        <v>27.2</v>
+      </c>
+      <c r="E91" t="n" s="0">
+        <v>28.38</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>27.39</v>
+      </c>
+      <c r="G91" t="n" s="0">
+        <v>28.07</v>
+      </c>
+      <c r="H91" t="n" s="0">
+        <v>27.93</v>
+      </c>
+      <c r="I91" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="J91" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="K91" t="n" s="0">
+        <v>23.51</v>
+      </c>
+      <c r="L91" t="n" s="0">
+        <v>27.66</v>
+      </c>
+      <c r="M91" t="n" s="0">
+        <v>28.39</v>
+      </c>
+      <c r="N91" t="n" s="0">
+        <v>27.7</v>
+      </c>
+      <c r="O91" t="n" s="0">
+        <v>27.6</v>
+      </c>
+      <c r="P91" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="Q91" t="n" s="0">
+        <v>28.24</v>
+      </c>
+      <c r="R91" t="n" s="0">
+        <v>27.49</v>
+      </c>
+      <c r="S91" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="T91" t="n" s="0">
+        <v>28.2</v>
+      </c>
+      <c r="U91" t="n" s="0">
+        <v>28.13</v>
+      </c>
+      <c r="V91" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="W91" t="n" s="0">
+        <v>28.06</v>
+      </c>
+      <c r="X91" t="n" s="0">
+        <v>28.48</v>
+      </c>
+      <c r="Y91" t="n" s="0">
+        <v>28.2</v>
+      </c>
+      <c r="Z91" t="n" s="0">
+        <v>28.46</v>
+      </c>
+      <c r="AA91" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="AB91" t="n" s="0">
+        <v>28.18</v>
+      </c>
+      <c r="AC91" t="n" s="0">
+        <v>27.96</v>
+      </c>
+      <c r="AD91" s="2001" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C93" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I93" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J93" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K93" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L93" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="M93" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="N93" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="O93" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="P93" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="Q93" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="R93" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="S93" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="T93" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="U93" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="V93" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="W93" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="X93" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="Y93" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="Z93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="AA93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="AB93" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="AC93" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="AD93" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2003" t="n">
+        <v>3.2685</v>
+      </c>
+      <c r="C94" t="n" s="0">
+        <v>3.3311</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>3.3318</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>3.3326</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>3.3293</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>3.3285</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>3.3284</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>3.3293</v>
+      </c>
+      <c r="J94" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="K94" t="n" s="0">
+        <v>3.3347</v>
+      </c>
+      <c r="L94" t="n" s="0">
+        <v>3.3374</v>
+      </c>
+      <c r="M94" t="n" s="0">
+        <v>3.3335</v>
+      </c>
+      <c r="N94" t="n" s="0">
+        <v>3.3357</v>
+      </c>
+      <c r="O94" t="n" s="0">
+        <v>3.3379</v>
+      </c>
+      <c r="P94" t="n" s="0">
+        <v>3.3355</v>
+      </c>
+      <c r="Q94" t="n" s="0">
+        <v>3.3321</v>
+      </c>
+      <c r="R94" t="n" s="0">
+        <v>3.3359</v>
+      </c>
+      <c r="S94" t="n" s="0">
+        <v>3.3309</v>
+      </c>
+      <c r="T94" s="2057" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="U94" t="n" s="0">
+        <v>3.3337</v>
+      </c>
+      <c r="V94" t="n" s="0">
+        <v>3.3367</v>
+      </c>
+      <c r="W94" t="n" s="0">
+        <v>3.3388</v>
+      </c>
+      <c r="X94" t="n" s="0">
+        <v>3.3352</v>
+      </c>
+      <c r="Y94" t="n" s="0">
+        <v>3.3343</v>
+      </c>
+      <c r="Z94" t="n" s="0">
+        <v>3.3341</v>
+      </c>
+      <c r="AA94" t="n" s="0">
+        <v>3.3371</v>
+      </c>
+      <c r="AB94" t="n" s="0">
+        <v>3.3375</v>
+      </c>
+      <c r="AC94" t="n" s="0">
+        <v>3.335</v>
+      </c>
+      <c r="AD94" t="n" s="0">
+        <v>3.328</v>
+      </c>
+      <c r="AE94" t="n" s="0">
+        <v>96.61710000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B95" t="n" s="0">
+        <v>28.05</v>
+      </c>
+      <c r="C95" t="n" s="0">
+        <v>28.18</v>
+      </c>
+      <c r="D95" t="n" s="0">
+        <v>27.2</v>
+      </c>
+      <c r="E95" t="n" s="0">
+        <v>28.38</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>27.39</v>
+      </c>
+      <c r="G95" t="n" s="0">
+        <v>28.07</v>
+      </c>
+      <c r="H95" t="n" s="0">
+        <v>27.92</v>
+      </c>
+      <c r="I95" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="J95" t="n" s="0">
+        <v>27.93</v>
+      </c>
+      <c r="K95" t="n" s="0">
+        <v>23.51</v>
+      </c>
+      <c r="L95" t="n" s="0">
+        <v>27.65</v>
+      </c>
+      <c r="M95" t="n" s="0">
+        <v>28.39</v>
+      </c>
+      <c r="N95" t="n" s="0">
+        <v>27.7</v>
+      </c>
+      <c r="O95" t="n" s="0">
+        <v>27.6</v>
+      </c>
+      <c r="P95" t="n" s="0">
+        <v>27.69</v>
+      </c>
+      <c r="Q95" t="n" s="0">
+        <v>28.24</v>
+      </c>
+      <c r="R95" t="n" s="0">
+        <v>27.49</v>
+      </c>
+      <c r="S95" t="n" s="0">
+        <v>28.47</v>
+      </c>
+      <c r="T95" t="n" s="0">
+        <v>28.21</v>
+      </c>
+      <c r="U95" t="n" s="0">
+        <v>28.14</v>
+      </c>
+      <c r="V95" t="n" s="0">
+        <v>28.09</v>
+      </c>
+      <c r="W95" t="n" s="0">
+        <v>28.06</v>
+      </c>
+      <c r="X95" t="n" s="0">
+        <v>28.48</v>
+      </c>
+      <c r="Y95" t="n" s="0">
+        <v>28.2</v>
+      </c>
+      <c r="Z95" t="n" s="0">
+        <v>28.46</v>
+      </c>
+      <c r="AA95" t="n" s="0">
+        <v>27.94</v>
+      </c>
+      <c r="AB95" t="n" s="0">
+        <v>28.18</v>
+      </c>
+      <c r="AC95" t="n" s="0">
+        <v>27.96</v>
+      </c>
+      <c r="AD95" s="2088" t="n">
+        <v>28.65</v>
       </c>
     </row>
   </sheetData>
